--- a/Passageiros pagos/nvt_nac.xlsx
+++ b/Passageiros pagos/nvt_nac.xlsx
@@ -1,32 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A4A2EC-1F3E-4C77-BFAA-6D5C2EC020C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ano</t>
   </si>
   <si>
     <t>Passageiros</t>
   </si>
+  <si>
+    <t xml:space="preserve">Passageiros_freq </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +58,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,20 +104,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -135,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +209,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +261,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,22 +454,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -401,8 +484,11 @@
       <c r="C2">
         <v>861385</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -412,8 +498,12 @@
       <c r="C3">
         <v>603000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4">
+        <f>C3/C2 -1</f>
+        <v>-0.29996459190721914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -423,8 +513,12 @@
       <c r="C4">
         <v>476990</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D22" si="0">C4/C3 -1</f>
+        <v>-0.20897180762852408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -434,8 +528,12 @@
       <c r="C5">
         <v>319266</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.33066521310719299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -445,8 +543,12 @@
       <c r="C6">
         <v>369477</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15727011332243324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -456,8 +558,12 @@
       <c r="C7">
         <v>484669</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31177042143353995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -467,8 +573,12 @@
       <c r="C8">
         <v>444597</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.2679106771838096E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -478,8 +588,12 @@
       <c r="C9">
         <v>401622</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.6660571258915362E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -489,8 +603,12 @@
       <c r="C10">
         <v>361877</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.8961212284187638E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -500,8 +618,12 @@
       <c r="C11">
         <v>617603</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.70666552447378539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -511,8 +633,12 @@
       <c r="C12">
         <v>903449</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46283130101375813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -522,8 +648,12 @@
       <c r="C13">
         <v>1236587</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36874023879599171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -533,8 +663,12 @@
       <c r="C14">
         <v>1302273</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>5.3118785819356029E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -544,8 +678,12 @@
       <c r="C15">
         <v>1192202</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.4522216155905827E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -555,8 +693,12 @@
       <c r="C16">
         <v>1327334</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11334656375345786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -566,8 +708,12 @@
       <c r="C17">
         <v>1463783</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.10279929542978627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -577,8 +723,12 @@
       <c r="C18">
         <v>1433956</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.0376654189862897E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -588,8 +738,12 @@
       <c r="C19">
         <v>1541221</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>7.480355045761522E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -599,8 +753,12 @@
       <c r="C20">
         <v>1837706</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19237020518147618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -610,8 +768,12 @@
       <c r="C21">
         <v>1884317</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5363687118614253E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -620,6 +782,10 @@
       </c>
       <c r="C22">
         <v>912805</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.51557779290851813</v>
       </c>
     </row>
   </sheetData>

--- a/Passageiros pagos/nvt_nac.xlsx
+++ b/Passageiros pagos/nvt_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A4A2EC-1F3E-4C77-BFAA-6D5C2EC020C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B418C1-35A7-4CFD-B02C-37C4E3BED17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="2364" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -485,7 +485,7 @@
         <v>861385</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>-0.29996459190721914</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -499,8 +499,7 @@
         <v>603000</v>
       </c>
       <c r="D3" s="4">
-        <f>C3/C2 -1</f>
-        <v>-0.29996459190721914</v>
+        <v>-0.20897180762852408</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -514,8 +513,7 @@
         <v>476990</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D22" si="0">C4/C3 -1</f>
-        <v>-0.20897180762852408</v>
+        <v>-0.33066521310719299</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -529,8 +527,7 @@
         <v>319266</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.33066521310719299</v>
+        <v>0.15727011332243324</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -544,8 +541,7 @@
         <v>369477</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.15727011332243324</v>
+        <v>0.31177042143353995</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -559,8 +555,7 @@
         <v>484669</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.31177042143353995</v>
+        <v>-8.2679106771838096E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -574,8 +569,7 @@
         <v>444597</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>-8.2679106771838096E-2</v>
+        <v>-9.6660571258915362E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -589,8 +583,7 @@
         <v>401622</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>-9.6660571258915362E-2</v>
+        <v>-9.8961212284187638E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -604,8 +597,7 @@
         <v>361877</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>-9.8961212284187638E-2</v>
+        <v>0.70666552447378539</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -619,8 +611,7 @@
         <v>617603</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.70666552447378539</v>
+        <v>0.46283130101375813</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -634,8 +625,7 @@
         <v>903449</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.46283130101375813</v>
+        <v>0.36874023879599171</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -649,8 +639,7 @@
         <v>1236587</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36874023879599171</v>
+        <v>5.3118785819356029E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,8 +653,7 @@
         <v>1302273</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>5.3118785819356029E-2</v>
+        <v>-8.4522216155905827E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -679,8 +667,7 @@
         <v>1192202</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>-8.4522216155905827E-2</v>
+        <v>0.11334656375345786</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -694,8 +681,7 @@
         <v>1327334</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.11334656375345786</v>
+        <v>0.10279929542978627</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -709,8 +695,7 @@
         <v>1463783</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10279929542978627</v>
+        <v>-2.0376654189862897E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -724,8 +709,7 @@
         <v>1433956</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.0376654189862897E-2</v>
+        <v>7.480355045761522E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -739,8 +723,7 @@
         <v>1541221</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>7.480355045761522E-2</v>
+        <v>0.19237020518147618</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -754,8 +737,7 @@
         <v>1837706</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.19237020518147618</v>
+        <v>2.5363687118614253E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -769,8 +751,7 @@
         <v>1884317</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5363687118614253E-2</v>
+        <v>-0.51557779290851813</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -783,10 +764,7 @@
       <c r="C22">
         <v>912805</v>
       </c>
-      <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.51557779290851813</v>
-      </c>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Passageiros pagos/nvt_nac.xlsx
+++ b/Passageiros pagos/nvt_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B418C1-35A7-4CFD-B02C-37C4E3BED17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2DC9AE-783A-4A86-A9DB-4881AB33C95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="2364" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,11 +457,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -751,7 +754,7 @@
         <v>1884317</v>
       </c>
       <c r="D21" s="4">
-        <v>-0.51557779290851813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">

--- a/Passageiros pagos/nvt_nac.xlsx
+++ b/Passageiros pagos/nvt_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2DC9AE-783A-4A86-A9DB-4881AB33C95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC3D8A2-8BF8-4B9E-9A42-71F4B8E3F150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ano</t>
   </si>
@@ -41,7 +41,10 @@
     <t>Passageiros</t>
   </si>
   <si>
-    <t xml:space="preserve">Passageiros_freq </t>
+    <t>Passageiros_freq</t>
+  </si>
+  <si>
+    <t>numero_de_passageiros</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,12 +106,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -116,6 +130,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,29 +472,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -485,289 +506,395 @@
         <v>2000</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C3</f>
+        <v>-2.6095171680914575E-2</v>
+      </c>
+      <c r="E2" s="6">
         <v>861385</v>
       </c>
-      <c r="D2" s="3">
-        <v>-0.29996459190721914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
+        <f>(LN(E3)/LN(E2)) - 1</f>
+        <v>-2.6095171680914575E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D21" si="0">C4</f>
+        <v>-1.7612880470726511E-2</v>
+      </c>
+      <c r="E3" s="6">
         <v>603000</v>
       </c>
-      <c r="D3" s="4">
-        <v>-0.20897180762852408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C22" si="1">(LN(E4)/LN(E3)) - 1</f>
+        <v>-1.7612880470726511E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.0704643541212495E-2</v>
+      </c>
+      <c r="E4" s="6">
         <v>476990</v>
       </c>
-      <c r="D4" s="4">
-        <v>-0.33066521310719299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>-3.0704643541212495E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1524886996545192E-2</v>
+      </c>
+      <c r="E5" s="6">
         <v>319266</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.15727011332243324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2004</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1524886996545192E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1168564640205112E-2</v>
+      </c>
+      <c r="E6" s="6">
         <v>369477</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.31177042143353995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1168564640205112E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>-6.5920456770212077E-3</v>
+      </c>
+      <c r="E7" s="6">
         <v>484669</v>
       </c>
-      <c r="D7" s="4">
-        <v>-8.2679106771838096E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>2006</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
+        <v>-6.5920456770212077E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.8168015258694989E-3</v>
+      </c>
+      <c r="E8" s="6">
         <v>444597</v>
       </c>
-      <c r="D8" s="4">
-        <v>-9.6660571258915362E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>2007</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>-7.8168015258694989E-3</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>-8.076014832972378E-3</v>
+      </c>
+      <c r="E9" s="6">
         <v>401622</v>
       </c>
-      <c r="D9" s="4">
-        <v>-9.8961212284187638E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2008</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>-8.076014832972378E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1764121394628706E-2</v>
+      </c>
+      <c r="E10" s="6">
         <v>361877</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.70666552447378539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>2009</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>4.1764121394628706E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8527462402740955E-2</v>
+      </c>
+      <c r="E11" s="6">
         <v>617603</v>
       </c>
-      <c r="D11" s="4">
-        <v>0.46283130101375813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>2010</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8527462402740955E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2888388264605375E-2</v>
+      </c>
+      <c r="E12" s="6">
         <v>903449</v>
       </c>
-      <c r="D12" s="4">
-        <v>0.36874023879599171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2888388264605375E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6895159146950185E-3</v>
+      </c>
+      <c r="E13" s="6">
         <v>1236587</v>
       </c>
-      <c r="D13" s="4">
-        <v>5.3118785819356029E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>2012</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>3.6895159146950185E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>-6.2721274318490172E-3</v>
+      </c>
+      <c r="E14" s="6">
         <v>1302273</v>
       </c>
-      <c r="D14" s="4">
-        <v>-8.4522216155905827E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2013</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
+        <v>-6.2721274318490172E-3</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6740764158211849E-3</v>
+      </c>
+      <c r="E15" s="6">
         <v>1192202</v>
       </c>
-      <c r="D15" s="4">
-        <v>0.11334656375345786</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>2014</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
+        <v>7.6740764158211849E-3</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>6.94048950766879E-3</v>
+      </c>
+      <c r="E16" s="6">
         <v>1327334</v>
       </c>
-      <c r="D16" s="4">
-        <v>0.10279929542978627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
+        <v>6.94048950766879E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.4501512224477375E-3</v>
+      </c>
+      <c r="E17" s="6">
         <v>1463783</v>
       </c>
-      <c r="D17" s="4">
-        <v>-2.0376654189862897E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
         <v>2016</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.4501512224477375E-3</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0887533639591975E-3</v>
+      </c>
+      <c r="E18" s="6">
         <v>1433956</v>
       </c>
-      <c r="D18" s="4">
-        <v>7.480355045761522E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
         <v>2017</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0887533639591975E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2348542899096593E-2</v>
+      </c>
+      <c r="E19" s="6">
         <v>1541221</v>
       </c>
-      <c r="D19" s="4">
-        <v>0.19237020518147618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
         <v>2018</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2348542899096593E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7365028198133015E-3</v>
+      </c>
+      <c r="E20" s="6">
         <v>1837706</v>
       </c>
-      <c r="D20" s="4">
-        <v>2.5363687118614253E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
         <v>2019</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7365028198133015E-3</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>-5.0162268153041256E-2</v>
+      </c>
+      <c r="E21" s="6">
         <v>1884317</v>
       </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
         <v>2020</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.0162268153041256E-2</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6">
         <v>912805</v>
       </c>
-      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Passageiros pagos/nvt_nac.xlsx
+++ b/Passageiros pagos/nvt_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC3D8A2-8BF8-4B9E-9A42-71F4B8E3F150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252D9DD8-8FAA-4229-80E9-3747011FCBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="3168" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>Passageiros</t>
+    <t>numero_de_passageiros</t>
   </si>
   <si>
-    <t>Passageiros_freq</t>
+    <t>Passageiros_frequencia</t>
   </si>
   <si>
-    <t>numero_de_passageiros</t>
+    <t>Passageiros_freq_defasagem</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
